--- a/public/templates/player.xlsx
+++ b/public/templates/player.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,14 +407,26 @@
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" customWidth="1"/>
+    <col min="23" max="23" width="20.83203125" customWidth="1"/>
+    <col min="24" max="24" width="20.83203125" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -434,27 +446,63 @@
         <v>altura</v>
       </c>
       <c r="F1" t="str">
+        <v>alturaTorso</v>
+      </c>
+      <c r="G1" t="str">
+        <v>envergaduraBrazos</v>
+      </c>
+      <c r="H1" t="str">
+        <v>imc</v>
+      </c>
+      <c r="I1" t="str">
+        <v>tmb</v>
+      </c>
+      <c r="J1" t="str">
+        <v>biotipo</v>
+      </c>
+      <c r="K1" t="str">
+        <v>dominancia</v>
+      </c>
+      <c r="L1" t="str">
+        <v>ojoDirector</v>
+      </c>
+      <c r="M1" t="str">
+        <v>hombro</v>
+      </c>
+      <c r="N1" t="str">
+        <v>brazoDirector</v>
+      </c>
+      <c r="O1" t="str">
+        <v>cintura</v>
+      </c>
+      <c r="P1" t="str">
+        <v>piernaDominante</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>piernaDirectora</v>
+      </c>
+      <c r="R1" t="str">
         <v>posicion</v>
       </c>
-      <c r="G1" t="str">
+      <c r="S1" t="str">
         <v>sexo</v>
       </c>
-      <c r="H1" t="str">
+      <c r="T1" t="str">
         <v>clase</v>
       </c>
-      <c r="I1" t="str">
+      <c r="U1" t="str">
         <v>fechaNacimiento</v>
       </c>
-      <c r="J1" t="str">
+      <c r="V1" t="str">
         <v>localidad</v>
       </c>
-      <c r="K1" t="str">
+      <c r="W1" t="str">
         <v>escuelaClub</v>
       </c>
-      <c r="L1" t="str">
+      <c r="X1" t="str">
         <v>contacto</v>
       </c>
-      <c r="M1" t="str">
+      <c r="Y1" t="str">
         <v>deporte</v>
       </c>
     </row>
@@ -474,17 +522,17 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2" t="str">
         <v/>
@@ -496,6 +544,42 @@
         <v/>
       </c>
       <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <v/>
+      </c>
+      <c r="W2" t="str">
+        <v/>
+      </c>
+      <c r="X2" t="str">
+        <v/>
+      </c>
+      <c r="Y2" t="str">
         <v/>
       </c>
     </row>
@@ -515,17 +599,17 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v/>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3" t="str">
         <v/>
@@ -537,6 +621,42 @@
         <v/>
       </c>
       <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
         <v/>
       </c>
     </row>
@@ -556,17 +676,17 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v/>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4" t="str">
         <v/>
@@ -578,6 +698,42 @@
         <v/>
       </c>
       <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
         <v/>
       </c>
     </row>
@@ -597,17 +753,17 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <v/>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5" t="str">
         <v/>
@@ -619,6 +775,42 @@
         <v/>
       </c>
       <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v/>
+      </c>
+      <c r="Y5" t="str">
         <v/>
       </c>
     </row>
@@ -638,17 +830,17 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <v/>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6" t="str">
         <v/>
@@ -660,6 +852,42 @@
         <v/>
       </c>
       <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v/>
+      </c>
+      <c r="Y6" t="str">
         <v/>
       </c>
     </row>
@@ -679,17 +907,17 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v/>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7" t="str">
         <v/>
@@ -701,6 +929,42 @@
         <v/>
       </c>
       <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
         <v/>
       </c>
     </row>
@@ -720,17 +984,17 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <v/>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8" t="str">
         <v/>
@@ -742,6 +1006,42 @@
         <v/>
       </c>
       <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <v/>
+      </c>
+      <c r="Y8" t="str">
         <v/>
       </c>
     </row>
@@ -761,17 +1061,17 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <v/>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9" t="str">
         <v/>
@@ -783,6 +1083,42 @@
         <v/>
       </c>
       <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <v/>
+      </c>
+      <c r="Y9" t="str">
         <v/>
       </c>
     </row>
@@ -802,17 +1138,17 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <v/>
-      </c>
-      <c r="I10" t="str">
-        <v/>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10" t="str">
         <v/>
@@ -824,6 +1160,42 @@
         <v/>
       </c>
       <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <v/>
+      </c>
+      <c r="Y10" t="str">
         <v/>
       </c>
     </row>
@@ -843,17 +1215,17 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
-      <c r="H11" t="str">
-        <v/>
-      </c>
-      <c r="I11" t="str">
-        <v/>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11" t="str">
         <v/>
@@ -865,6 +1237,42 @@
         <v/>
       </c>
       <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <v/>
+      </c>
+      <c r="Y11" t="str">
         <v/>
       </c>
     </row>
@@ -884,17 +1292,17 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-      <c r="H12" t="str">
-        <v/>
-      </c>
-      <c r="I12" t="str">
-        <v/>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12" t="str">
         <v/>
@@ -906,6 +1314,42 @@
         <v/>
       </c>
       <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <v/>
+      </c>
+      <c r="Y12" t="str">
         <v/>
       </c>
     </row>
@@ -925,17 +1369,17 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <v/>
-      </c>
-      <c r="H13" t="str">
-        <v/>
-      </c>
-      <c r="I13" t="str">
-        <v/>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13" t="str">
         <v/>
@@ -947,6 +1391,42 @@
         <v/>
       </c>
       <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <v/>
+      </c>
+      <c r="Y13" t="str">
         <v/>
       </c>
     </row>
@@ -966,17 +1446,17 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <v/>
-      </c>
-      <c r="H14" t="str">
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <v/>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14" t="str">
         <v/>
@@ -988,6 +1468,42 @@
         <v/>
       </c>
       <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <v/>
+      </c>
+      <c r="W14" t="str">
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <v/>
+      </c>
+      <c r="Y14" t="str">
         <v/>
       </c>
     </row>
@@ -1007,17 +1523,17 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <v/>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15" t="str">
         <v/>
@@ -1029,6 +1545,42 @@
         <v/>
       </c>
       <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <v/>
+      </c>
+      <c r="Y15" t="str">
         <v/>
       </c>
     </row>
@@ -1048,17 +1600,17 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="str">
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <v/>
-      </c>
-      <c r="H16" t="str">
-        <v/>
-      </c>
-      <c r="I16" t="str">
-        <v/>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16" t="str">
         <v/>
@@ -1070,6 +1622,42 @@
         <v/>
       </c>
       <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <v/>
+      </c>
+      <c r="Y16" t="str">
         <v/>
       </c>
     </row>
@@ -1089,17 +1677,17 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="str">
-        <v/>
-      </c>
-      <c r="G17" t="str">
-        <v/>
-      </c>
-      <c r="H17" t="str">
-        <v/>
-      </c>
-      <c r="I17" t="str">
-        <v/>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17" t="str">
         <v/>
@@ -1111,6 +1699,42 @@
         <v/>
       </c>
       <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <v/>
+      </c>
+      <c r="Y17" t="str">
         <v/>
       </c>
     </row>
@@ -1130,17 +1754,17 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <v/>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18" t="str">
         <v/>
@@ -1152,6 +1776,42 @@
         <v/>
       </c>
       <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <v/>
+      </c>
+      <c r="Y18" t="str">
         <v/>
       </c>
     </row>
@@ -1171,17 +1831,17 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" t="str">
-        <v/>
-      </c>
-      <c r="G19" t="str">
-        <v/>
-      </c>
-      <c r="H19" t="str">
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <v/>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19" t="str">
         <v/>
@@ -1193,6 +1853,42 @@
         <v/>
       </c>
       <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v/>
+      </c>
+      <c r="Y19" t="str">
         <v/>
       </c>
     </row>
@@ -1212,17 +1908,17 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" t="str">
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <v/>
-      </c>
-      <c r="H20" t="str">
-        <v/>
-      </c>
-      <c r="I20" t="str">
-        <v/>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20" t="str">
         <v/>
@@ -1234,6 +1930,42 @@
         <v/>
       </c>
       <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
         <v/>
       </c>
     </row>
@@ -1253,17 +1985,17 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="str">
-        <v/>
-      </c>
-      <c r="G21" t="str">
-        <v/>
-      </c>
-      <c r="H21" t="str">
-        <v/>
-      </c>
-      <c r="I21" t="str">
-        <v/>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21" t="str">
         <v/>
@@ -1275,6 +2007,42 @@
         <v/>
       </c>
       <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <v/>
+      </c>
+      <c r="V21" t="str">
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <v/>
+      </c>
+      <c r="X21" t="str">
+        <v/>
+      </c>
+      <c r="Y21" t="str">
         <v/>
       </c>
     </row>
@@ -1294,17 +2062,17 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <v/>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22" t="str">
         <v/>
@@ -1316,6 +2084,42 @@
         <v/>
       </c>
       <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v/>
+      </c>
+      <c r="U22" t="str">
+        <v/>
+      </c>
+      <c r="V22" t="str">
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <v/>
+      </c>
+      <c r="Y22" t="str">
         <v/>
       </c>
     </row>
@@ -1335,17 +2139,17 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="str">
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <v/>
-      </c>
-      <c r="I23" t="str">
-        <v/>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="J23" t="str">
         <v/>
@@ -1357,6 +2161,42 @@
         <v/>
       </c>
       <c r="M23" t="str">
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <v/>
+      </c>
+      <c r="U23" t="str">
+        <v/>
+      </c>
+      <c r="V23" t="str">
+        <v/>
+      </c>
+      <c r="W23" t="str">
+        <v/>
+      </c>
+      <c r="X23" t="str">
+        <v/>
+      </c>
+      <c r="Y23" t="str">
         <v/>
       </c>
     </row>
@@ -1376,17 +2216,17 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="str">
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <v/>
-      </c>
-      <c r="H24" t="str">
-        <v/>
-      </c>
-      <c r="I24" t="str">
-        <v/>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
       <c r="J24" t="str">
         <v/>
@@ -1398,6 +2238,42 @@
         <v/>
       </c>
       <c r="M24" t="str">
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v/>
+      </c>
+      <c r="U24" t="str">
+        <v/>
+      </c>
+      <c r="V24" t="str">
+        <v/>
+      </c>
+      <c r="W24" t="str">
+        <v/>
+      </c>
+      <c r="X24" t="str">
+        <v/>
+      </c>
+      <c r="Y24" t="str">
         <v/>
       </c>
     </row>
@@ -1417,17 +2293,17 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="str">
-        <v/>
-      </c>
-      <c r="G25" t="str">
-        <v/>
-      </c>
-      <c r="H25" t="str">
-        <v/>
-      </c>
-      <c r="I25" t="str">
-        <v/>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
       <c r="J25" t="str">
         <v/>
@@ -1439,6 +2315,42 @@
         <v/>
       </c>
       <c r="M25" t="str">
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <v/>
+      </c>
+      <c r="U25" t="str">
+        <v/>
+      </c>
+      <c r="V25" t="str">
+        <v/>
+      </c>
+      <c r="W25" t="str">
+        <v/>
+      </c>
+      <c r="X25" t="str">
+        <v/>
+      </c>
+      <c r="Y25" t="str">
         <v/>
       </c>
     </row>
@@ -1458,17 +2370,17 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" t="str">
-        <v/>
-      </c>
-      <c r="G26" t="str">
-        <v/>
-      </c>
-      <c r="H26" t="str">
-        <v/>
-      </c>
-      <c r="I26" t="str">
-        <v/>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
       </c>
       <c r="J26" t="str">
         <v/>
@@ -1480,6 +2392,42 @@
         <v/>
       </c>
       <c r="M26" t="str">
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <v/>
+      </c>
+      <c r="V26" t="str">
+        <v/>
+      </c>
+      <c r="W26" t="str">
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <v/>
+      </c>
+      <c r="Y26" t="str">
         <v/>
       </c>
     </row>
@@ -1499,17 +2447,17 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" t="str">
-        <v/>
-      </c>
-      <c r="G27" t="str">
-        <v/>
-      </c>
-      <c r="H27" t="str">
-        <v/>
-      </c>
-      <c r="I27" t="str">
-        <v/>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="J27" t="str">
         <v/>
@@ -1521,6 +2469,42 @@
         <v/>
       </c>
       <c r="M27" t="str">
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <v/>
+      </c>
+      <c r="V27" t="str">
+        <v/>
+      </c>
+      <c r="W27" t="str">
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <v/>
+      </c>
+      <c r="Y27" t="str">
         <v/>
       </c>
     </row>
@@ -1540,17 +2524,17 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" t="str">
-        <v/>
-      </c>
-      <c r="G28" t="str">
-        <v/>
-      </c>
-      <c r="H28" t="str">
-        <v/>
-      </c>
-      <c r="I28" t="str">
-        <v/>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
       </c>
       <c r="J28" t="str">
         <v/>
@@ -1562,6 +2546,42 @@
         <v/>
       </c>
       <c r="M28" t="str">
+        <v/>
+      </c>
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <v/>
+      </c>
+      <c r="Q28" t="str">
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <v/>
+      </c>
+      <c r="S28" t="str">
+        <v/>
+      </c>
+      <c r="T28" t="str">
+        <v/>
+      </c>
+      <c r="U28" t="str">
+        <v/>
+      </c>
+      <c r="V28" t="str">
+        <v/>
+      </c>
+      <c r="W28" t="str">
+        <v/>
+      </c>
+      <c r="X28" t="str">
+        <v/>
+      </c>
+      <c r="Y28" t="str">
         <v/>
       </c>
     </row>
@@ -1581,17 +2601,17 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="str">
-        <v/>
-      </c>
-      <c r="G29" t="str">
-        <v/>
-      </c>
-      <c r="H29" t="str">
-        <v/>
-      </c>
-      <c r="I29" t="str">
-        <v/>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
       </c>
       <c r="J29" t="str">
         <v/>
@@ -1603,6 +2623,42 @@
         <v/>
       </c>
       <c r="M29" t="str">
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <v/>
+      </c>
+      <c r="P29" t="str">
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <v/>
+      </c>
+      <c r="R29" t="str">
+        <v/>
+      </c>
+      <c r="S29" t="str">
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <v/>
+      </c>
+      <c r="U29" t="str">
+        <v/>
+      </c>
+      <c r="V29" t="str">
+        <v/>
+      </c>
+      <c r="W29" t="str">
+        <v/>
+      </c>
+      <c r="X29" t="str">
+        <v/>
+      </c>
+      <c r="Y29" t="str">
         <v/>
       </c>
     </row>
@@ -1622,17 +2678,17 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="str">
-        <v/>
-      </c>
-      <c r="G30" t="str">
-        <v/>
-      </c>
-      <c r="H30" t="str">
-        <v/>
-      </c>
-      <c r="I30" t="str">
-        <v/>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
       </c>
       <c r="J30" t="str">
         <v/>
@@ -1644,6 +2700,42 @@
         <v/>
       </c>
       <c r="M30" t="str">
+        <v/>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <v/>
+      </c>
+      <c r="R30" t="str">
+        <v/>
+      </c>
+      <c r="S30" t="str">
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <v/>
+      </c>
+      <c r="U30" t="str">
+        <v/>
+      </c>
+      <c r="V30" t="str">
+        <v/>
+      </c>
+      <c r="W30" t="str">
+        <v/>
+      </c>
+      <c r="X30" t="str">
+        <v/>
+      </c>
+      <c r="Y30" t="str">
         <v/>
       </c>
     </row>
@@ -1663,17 +2755,17 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="str">
-        <v/>
-      </c>
-      <c r="G31" t="str">
-        <v/>
-      </c>
-      <c r="H31" t="str">
-        <v/>
-      </c>
-      <c r="I31" t="str">
-        <v/>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
       <c r="J31" t="str">
         <v/>
@@ -1685,6 +2777,42 @@
         <v/>
       </c>
       <c r="M31" t="str">
+        <v/>
+      </c>
+      <c r="N31" t="str">
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <v/>
+      </c>
+      <c r="P31" t="str">
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <v/>
+      </c>
+      <c r="R31" t="str">
+        <v/>
+      </c>
+      <c r="S31" t="str">
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <v/>
+      </c>
+      <c r="U31" t="str">
+        <v/>
+      </c>
+      <c r="V31" t="str">
+        <v/>
+      </c>
+      <c r="W31" t="str">
+        <v/>
+      </c>
+      <c r="X31" t="str">
+        <v/>
+      </c>
+      <c r="Y31" t="str">
         <v/>
       </c>
     </row>
@@ -1704,17 +2832,17 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="str">
-        <v/>
-      </c>
-      <c r="G32" t="str">
-        <v/>
-      </c>
-      <c r="H32" t="str">
-        <v/>
-      </c>
-      <c r="I32" t="str">
-        <v/>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
       </c>
       <c r="J32" t="str">
         <v/>
@@ -1726,6 +2854,42 @@
         <v/>
       </c>
       <c r="M32" t="str">
+        <v/>
+      </c>
+      <c r="N32" t="str">
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <v/>
+      </c>
+      <c r="P32" t="str">
+        <v/>
+      </c>
+      <c r="Q32" t="str">
+        <v/>
+      </c>
+      <c r="R32" t="str">
+        <v/>
+      </c>
+      <c r="S32" t="str">
+        <v/>
+      </c>
+      <c r="T32" t="str">
+        <v/>
+      </c>
+      <c r="U32" t="str">
+        <v/>
+      </c>
+      <c r="V32" t="str">
+        <v/>
+      </c>
+      <c r="W32" t="str">
+        <v/>
+      </c>
+      <c r="X32" t="str">
+        <v/>
+      </c>
+      <c r="Y32" t="str">
         <v/>
       </c>
     </row>
@@ -1745,17 +2909,17 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" t="str">
-        <v/>
-      </c>
-      <c r="G33" t="str">
-        <v/>
-      </c>
-      <c r="H33" t="str">
-        <v/>
-      </c>
-      <c r="I33" t="str">
-        <v/>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
       </c>
       <c r="J33" t="str">
         <v/>
@@ -1767,6 +2931,42 @@
         <v/>
       </c>
       <c r="M33" t="str">
+        <v/>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <v/>
+      </c>
+      <c r="Q33" t="str">
+        <v/>
+      </c>
+      <c r="R33" t="str">
+        <v/>
+      </c>
+      <c r="S33" t="str">
+        <v/>
+      </c>
+      <c r="T33" t="str">
+        <v/>
+      </c>
+      <c r="U33" t="str">
+        <v/>
+      </c>
+      <c r="V33" t="str">
+        <v/>
+      </c>
+      <c r="W33" t="str">
+        <v/>
+      </c>
+      <c r="X33" t="str">
+        <v/>
+      </c>
+      <c r="Y33" t="str">
         <v/>
       </c>
     </row>
@@ -1786,17 +2986,17 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" t="str">
-        <v/>
-      </c>
-      <c r="G34" t="str">
-        <v/>
-      </c>
-      <c r="H34" t="str">
-        <v/>
-      </c>
-      <c r="I34" t="str">
-        <v/>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
       </c>
       <c r="J34" t="str">
         <v/>
@@ -1808,6 +3008,42 @@
         <v/>
       </c>
       <c r="M34" t="str">
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <v/>
+      </c>
+      <c r="Q34" t="str">
+        <v/>
+      </c>
+      <c r="R34" t="str">
+        <v/>
+      </c>
+      <c r="S34" t="str">
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <v/>
+      </c>
+      <c r="U34" t="str">
+        <v/>
+      </c>
+      <c r="V34" t="str">
+        <v/>
+      </c>
+      <c r="W34" t="str">
+        <v/>
+      </c>
+      <c r="X34" t="str">
+        <v/>
+      </c>
+      <c r="Y34" t="str">
         <v/>
       </c>
     </row>
@@ -1827,17 +3063,17 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" t="str">
-        <v/>
-      </c>
-      <c r="G35" t="str">
-        <v/>
-      </c>
-      <c r="H35" t="str">
-        <v/>
-      </c>
-      <c r="I35" t="str">
-        <v/>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
       </c>
       <c r="J35" t="str">
         <v/>
@@ -1849,6 +3085,42 @@
         <v/>
       </c>
       <c r="M35" t="str">
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <v/>
+      </c>
+      <c r="Q35" t="str">
+        <v/>
+      </c>
+      <c r="R35" t="str">
+        <v/>
+      </c>
+      <c r="S35" t="str">
+        <v/>
+      </c>
+      <c r="T35" t="str">
+        <v/>
+      </c>
+      <c r="U35" t="str">
+        <v/>
+      </c>
+      <c r="V35" t="str">
+        <v/>
+      </c>
+      <c r="W35" t="str">
+        <v/>
+      </c>
+      <c r="X35" t="str">
+        <v/>
+      </c>
+      <c r="Y35" t="str">
         <v/>
       </c>
     </row>
@@ -1868,17 +3140,17 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" t="str">
-        <v/>
-      </c>
-      <c r="G36" t="str">
-        <v/>
-      </c>
-      <c r="H36" t="str">
-        <v/>
-      </c>
-      <c r="I36" t="str">
-        <v/>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
       </c>
       <c r="J36" t="str">
         <v/>
@@ -1890,6 +3162,42 @@
         <v/>
       </c>
       <c r="M36" t="str">
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <v/>
+      </c>
+      <c r="R36" t="str">
+        <v/>
+      </c>
+      <c r="S36" t="str">
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <v/>
+      </c>
+      <c r="V36" t="str">
+        <v/>
+      </c>
+      <c r="W36" t="str">
+        <v/>
+      </c>
+      <c r="X36" t="str">
+        <v/>
+      </c>
+      <c r="Y36" t="str">
         <v/>
       </c>
     </row>
@@ -1909,17 +3217,17 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" t="str">
-        <v/>
-      </c>
-      <c r="G37" t="str">
-        <v/>
-      </c>
-      <c r="H37" t="str">
-        <v/>
-      </c>
-      <c r="I37" t="str">
-        <v/>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
       </c>
       <c r="J37" t="str">
         <v/>
@@ -1931,6 +3239,42 @@
         <v/>
       </c>
       <c r="M37" t="str">
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <v/>
+      </c>
+      <c r="P37" t="str">
+        <v/>
+      </c>
+      <c r="Q37" t="str">
+        <v/>
+      </c>
+      <c r="R37" t="str">
+        <v/>
+      </c>
+      <c r="S37" t="str">
+        <v/>
+      </c>
+      <c r="T37" t="str">
+        <v/>
+      </c>
+      <c r="U37" t="str">
+        <v/>
+      </c>
+      <c r="V37" t="str">
+        <v/>
+      </c>
+      <c r="W37" t="str">
+        <v/>
+      </c>
+      <c r="X37" t="str">
+        <v/>
+      </c>
+      <c r="Y37" t="str">
         <v/>
       </c>
     </row>
@@ -1950,17 +3294,17 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" t="str">
-        <v/>
-      </c>
-      <c r="G38" t="str">
-        <v/>
-      </c>
-      <c r="H38" t="str">
-        <v/>
-      </c>
-      <c r="I38" t="str">
-        <v/>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
       </c>
       <c r="J38" t="str">
         <v/>
@@ -1972,6 +3316,42 @@
         <v/>
       </c>
       <c r="M38" t="str">
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <v/>
+      </c>
+      <c r="R38" t="str">
+        <v/>
+      </c>
+      <c r="S38" t="str">
+        <v/>
+      </c>
+      <c r="T38" t="str">
+        <v/>
+      </c>
+      <c r="U38" t="str">
+        <v/>
+      </c>
+      <c r="V38" t="str">
+        <v/>
+      </c>
+      <c r="W38" t="str">
+        <v/>
+      </c>
+      <c r="X38" t="str">
+        <v/>
+      </c>
+      <c r="Y38" t="str">
         <v/>
       </c>
     </row>
@@ -1991,17 +3371,17 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" t="str">
-        <v/>
-      </c>
-      <c r="G39" t="str">
-        <v/>
-      </c>
-      <c r="H39" t="str">
-        <v/>
-      </c>
-      <c r="I39" t="str">
-        <v/>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
       </c>
       <c r="J39" t="str">
         <v/>
@@ -2013,6 +3393,42 @@
         <v/>
       </c>
       <c r="M39" t="str">
+        <v/>
+      </c>
+      <c r="N39" t="str">
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <v/>
+      </c>
+      <c r="P39" t="str">
+        <v/>
+      </c>
+      <c r="Q39" t="str">
+        <v/>
+      </c>
+      <c r="R39" t="str">
+        <v/>
+      </c>
+      <c r="S39" t="str">
+        <v/>
+      </c>
+      <c r="T39" t="str">
+        <v/>
+      </c>
+      <c r="U39" t="str">
+        <v/>
+      </c>
+      <c r="V39" t="str">
+        <v/>
+      </c>
+      <c r="W39" t="str">
+        <v/>
+      </c>
+      <c r="X39" t="str">
+        <v/>
+      </c>
+      <c r="Y39" t="str">
         <v/>
       </c>
     </row>
@@ -2032,17 +3448,17 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" t="str">
-        <v/>
-      </c>
-      <c r="G40" t="str">
-        <v/>
-      </c>
-      <c r="H40" t="str">
-        <v/>
-      </c>
-      <c r="I40" t="str">
-        <v/>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
       </c>
       <c r="J40" t="str">
         <v/>
@@ -2054,6 +3470,42 @@
         <v/>
       </c>
       <c r="M40" t="str">
+        <v/>
+      </c>
+      <c r="N40" t="str">
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <v/>
+      </c>
+      <c r="P40" t="str">
+        <v/>
+      </c>
+      <c r="Q40" t="str">
+        <v/>
+      </c>
+      <c r="R40" t="str">
+        <v/>
+      </c>
+      <c r="S40" t="str">
+        <v/>
+      </c>
+      <c r="T40" t="str">
+        <v/>
+      </c>
+      <c r="U40" t="str">
+        <v/>
+      </c>
+      <c r="V40" t="str">
+        <v/>
+      </c>
+      <c r="W40" t="str">
+        <v/>
+      </c>
+      <c r="X40" t="str">
+        <v/>
+      </c>
+      <c r="Y40" t="str">
         <v/>
       </c>
     </row>
@@ -2073,17 +3525,17 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" t="str">
-        <v/>
-      </c>
-      <c r="G41" t="str">
-        <v/>
-      </c>
-      <c r="H41" t="str">
-        <v/>
-      </c>
-      <c r="I41" t="str">
-        <v/>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
       </c>
       <c r="J41" t="str">
         <v/>
@@ -2095,6 +3547,42 @@
         <v/>
       </c>
       <c r="M41" t="str">
+        <v/>
+      </c>
+      <c r="N41" t="str">
+        <v/>
+      </c>
+      <c r="O41" t="str">
+        <v/>
+      </c>
+      <c r="P41" t="str">
+        <v/>
+      </c>
+      <c r="Q41" t="str">
+        <v/>
+      </c>
+      <c r="R41" t="str">
+        <v/>
+      </c>
+      <c r="S41" t="str">
+        <v/>
+      </c>
+      <c r="T41" t="str">
+        <v/>
+      </c>
+      <c r="U41" t="str">
+        <v/>
+      </c>
+      <c r="V41" t="str">
+        <v/>
+      </c>
+      <c r="W41" t="str">
+        <v/>
+      </c>
+      <c r="X41" t="str">
+        <v/>
+      </c>
+      <c r="Y41" t="str">
         <v/>
       </c>
     </row>
@@ -2114,17 +3602,17 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" t="str">
-        <v/>
-      </c>
-      <c r="G42" t="str">
-        <v/>
-      </c>
-      <c r="H42" t="str">
-        <v/>
-      </c>
-      <c r="I42" t="str">
-        <v/>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
       </c>
       <c r="J42" t="str">
         <v/>
@@ -2136,6 +3624,42 @@
         <v/>
       </c>
       <c r="M42" t="str">
+        <v/>
+      </c>
+      <c r="N42" t="str">
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <v/>
+      </c>
+      <c r="Q42" t="str">
+        <v/>
+      </c>
+      <c r="R42" t="str">
+        <v/>
+      </c>
+      <c r="S42" t="str">
+        <v/>
+      </c>
+      <c r="T42" t="str">
+        <v/>
+      </c>
+      <c r="U42" t="str">
+        <v/>
+      </c>
+      <c r="V42" t="str">
+        <v/>
+      </c>
+      <c r="W42" t="str">
+        <v/>
+      </c>
+      <c r="X42" t="str">
+        <v/>
+      </c>
+      <c r="Y42" t="str">
         <v/>
       </c>
     </row>
@@ -2155,17 +3679,17 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" t="str">
-        <v/>
-      </c>
-      <c r="G43" t="str">
-        <v/>
-      </c>
-      <c r="H43" t="str">
-        <v/>
-      </c>
-      <c r="I43" t="str">
-        <v/>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
       </c>
       <c r="J43" t="str">
         <v/>
@@ -2177,6 +3701,42 @@
         <v/>
       </c>
       <c r="M43" t="str">
+        <v/>
+      </c>
+      <c r="N43" t="str">
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <v/>
+      </c>
+      <c r="P43" t="str">
+        <v/>
+      </c>
+      <c r="Q43" t="str">
+        <v/>
+      </c>
+      <c r="R43" t="str">
+        <v/>
+      </c>
+      <c r="S43" t="str">
+        <v/>
+      </c>
+      <c r="T43" t="str">
+        <v/>
+      </c>
+      <c r="U43" t="str">
+        <v/>
+      </c>
+      <c r="V43" t="str">
+        <v/>
+      </c>
+      <c r="W43" t="str">
+        <v/>
+      </c>
+      <c r="X43" t="str">
+        <v/>
+      </c>
+      <c r="Y43" t="str">
         <v/>
       </c>
     </row>
@@ -2196,17 +3756,17 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" t="str">
-        <v/>
-      </c>
-      <c r="G44" t="str">
-        <v/>
-      </c>
-      <c r="H44" t="str">
-        <v/>
-      </c>
-      <c r="I44" t="str">
-        <v/>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
       </c>
       <c r="J44" t="str">
         <v/>
@@ -2218,6 +3778,42 @@
         <v/>
       </c>
       <c r="M44" t="str">
+        <v/>
+      </c>
+      <c r="N44" t="str">
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <v/>
+      </c>
+      <c r="P44" t="str">
+        <v/>
+      </c>
+      <c r="Q44" t="str">
+        <v/>
+      </c>
+      <c r="R44" t="str">
+        <v/>
+      </c>
+      <c r="S44" t="str">
+        <v/>
+      </c>
+      <c r="T44" t="str">
+        <v/>
+      </c>
+      <c r="U44" t="str">
+        <v/>
+      </c>
+      <c r="V44" t="str">
+        <v/>
+      </c>
+      <c r="W44" t="str">
+        <v/>
+      </c>
+      <c r="X44" t="str">
+        <v/>
+      </c>
+      <c r="Y44" t="str">
         <v/>
       </c>
     </row>
@@ -2237,17 +3833,17 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" t="str">
-        <v/>
-      </c>
-      <c r="G45" t="str">
-        <v/>
-      </c>
-      <c r="H45" t="str">
-        <v/>
-      </c>
-      <c r="I45" t="str">
-        <v/>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
       </c>
       <c r="J45" t="str">
         <v/>
@@ -2259,6 +3855,42 @@
         <v/>
       </c>
       <c r="M45" t="str">
+        <v/>
+      </c>
+      <c r="N45" t="str">
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <v/>
+      </c>
+      <c r="P45" t="str">
+        <v/>
+      </c>
+      <c r="Q45" t="str">
+        <v/>
+      </c>
+      <c r="R45" t="str">
+        <v/>
+      </c>
+      <c r="S45" t="str">
+        <v/>
+      </c>
+      <c r="T45" t="str">
+        <v/>
+      </c>
+      <c r="U45" t="str">
+        <v/>
+      </c>
+      <c r="V45" t="str">
+        <v/>
+      </c>
+      <c r="W45" t="str">
+        <v/>
+      </c>
+      <c r="X45" t="str">
+        <v/>
+      </c>
+      <c r="Y45" t="str">
         <v/>
       </c>
     </row>
@@ -2278,17 +3910,17 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" t="str">
-        <v/>
-      </c>
-      <c r="G46" t="str">
-        <v/>
-      </c>
-      <c r="H46" t="str">
-        <v/>
-      </c>
-      <c r="I46" t="str">
-        <v/>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
       </c>
       <c r="J46" t="str">
         <v/>
@@ -2300,6 +3932,42 @@
         <v/>
       </c>
       <c r="M46" t="str">
+        <v/>
+      </c>
+      <c r="N46" t="str">
+        <v/>
+      </c>
+      <c r="O46" t="str">
+        <v/>
+      </c>
+      <c r="P46" t="str">
+        <v/>
+      </c>
+      <c r="Q46" t="str">
+        <v/>
+      </c>
+      <c r="R46" t="str">
+        <v/>
+      </c>
+      <c r="S46" t="str">
+        <v/>
+      </c>
+      <c r="T46" t="str">
+        <v/>
+      </c>
+      <c r="U46" t="str">
+        <v/>
+      </c>
+      <c r="V46" t="str">
+        <v/>
+      </c>
+      <c r="W46" t="str">
+        <v/>
+      </c>
+      <c r="X46" t="str">
+        <v/>
+      </c>
+      <c r="Y46" t="str">
         <v/>
       </c>
     </row>
@@ -2319,17 +3987,17 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" t="str">
-        <v/>
-      </c>
-      <c r="G47" t="str">
-        <v/>
-      </c>
-      <c r="H47" t="str">
-        <v/>
-      </c>
-      <c r="I47" t="str">
-        <v/>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
       </c>
       <c r="J47" t="str">
         <v/>
@@ -2341,6 +4009,42 @@
         <v/>
       </c>
       <c r="M47" t="str">
+        <v/>
+      </c>
+      <c r="N47" t="str">
+        <v/>
+      </c>
+      <c r="O47" t="str">
+        <v/>
+      </c>
+      <c r="P47" t="str">
+        <v/>
+      </c>
+      <c r="Q47" t="str">
+        <v/>
+      </c>
+      <c r="R47" t="str">
+        <v/>
+      </c>
+      <c r="S47" t="str">
+        <v/>
+      </c>
+      <c r="T47" t="str">
+        <v/>
+      </c>
+      <c r="U47" t="str">
+        <v/>
+      </c>
+      <c r="V47" t="str">
+        <v/>
+      </c>
+      <c r="W47" t="str">
+        <v/>
+      </c>
+      <c r="X47" t="str">
+        <v/>
+      </c>
+      <c r="Y47" t="str">
         <v/>
       </c>
     </row>
@@ -2360,17 +4064,17 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" t="str">
-        <v/>
-      </c>
-      <c r="G48" t="str">
-        <v/>
-      </c>
-      <c r="H48" t="str">
-        <v/>
-      </c>
-      <c r="I48" t="str">
-        <v/>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
       </c>
       <c r="J48" t="str">
         <v/>
@@ -2382,6 +4086,42 @@
         <v/>
       </c>
       <c r="M48" t="str">
+        <v/>
+      </c>
+      <c r="N48" t="str">
+        <v/>
+      </c>
+      <c r="O48" t="str">
+        <v/>
+      </c>
+      <c r="P48" t="str">
+        <v/>
+      </c>
+      <c r="Q48" t="str">
+        <v/>
+      </c>
+      <c r="R48" t="str">
+        <v/>
+      </c>
+      <c r="S48" t="str">
+        <v/>
+      </c>
+      <c r="T48" t="str">
+        <v/>
+      </c>
+      <c r="U48" t="str">
+        <v/>
+      </c>
+      <c r="V48" t="str">
+        <v/>
+      </c>
+      <c r="W48" t="str">
+        <v/>
+      </c>
+      <c r="X48" t="str">
+        <v/>
+      </c>
+      <c r="Y48" t="str">
         <v/>
       </c>
     </row>
@@ -2401,17 +4141,17 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" t="str">
-        <v/>
-      </c>
-      <c r="G49" t="str">
-        <v/>
-      </c>
-      <c r="H49" t="str">
-        <v/>
-      </c>
-      <c r="I49" t="str">
-        <v/>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
       </c>
       <c r="J49" t="str">
         <v/>
@@ -2423,6 +4163,42 @@
         <v/>
       </c>
       <c r="M49" t="str">
+        <v/>
+      </c>
+      <c r="N49" t="str">
+        <v/>
+      </c>
+      <c r="O49" t="str">
+        <v/>
+      </c>
+      <c r="P49" t="str">
+        <v/>
+      </c>
+      <c r="Q49" t="str">
+        <v/>
+      </c>
+      <c r="R49" t="str">
+        <v/>
+      </c>
+      <c r="S49" t="str">
+        <v/>
+      </c>
+      <c r="T49" t="str">
+        <v/>
+      </c>
+      <c r="U49" t="str">
+        <v/>
+      </c>
+      <c r="V49" t="str">
+        <v/>
+      </c>
+      <c r="W49" t="str">
+        <v/>
+      </c>
+      <c r="X49" t="str">
+        <v/>
+      </c>
+      <c r="Y49" t="str">
         <v/>
       </c>
     </row>
@@ -2442,17 +4218,17 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" t="str">
-        <v/>
-      </c>
-      <c r="G50" t="str">
-        <v/>
-      </c>
-      <c r="H50" t="str">
-        <v/>
-      </c>
-      <c r="I50" t="str">
-        <v/>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
       </c>
       <c r="J50" t="str">
         <v/>
@@ -2464,6 +4240,42 @@
         <v/>
       </c>
       <c r="M50" t="str">
+        <v/>
+      </c>
+      <c r="N50" t="str">
+        <v/>
+      </c>
+      <c r="O50" t="str">
+        <v/>
+      </c>
+      <c r="P50" t="str">
+        <v/>
+      </c>
+      <c r="Q50" t="str">
+        <v/>
+      </c>
+      <c r="R50" t="str">
+        <v/>
+      </c>
+      <c r="S50" t="str">
+        <v/>
+      </c>
+      <c r="T50" t="str">
+        <v/>
+      </c>
+      <c r="U50" t="str">
+        <v/>
+      </c>
+      <c r="V50" t="str">
+        <v/>
+      </c>
+      <c r="W50" t="str">
+        <v/>
+      </c>
+      <c r="X50" t="str">
+        <v/>
+      </c>
+      <c r="Y50" t="str">
         <v/>
       </c>
     </row>
@@ -2483,17 +4295,17 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" t="str">
-        <v/>
-      </c>
-      <c r="G51" t="str">
-        <v/>
-      </c>
-      <c r="H51" t="str">
-        <v/>
-      </c>
-      <c r="I51" t="str">
-        <v/>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
       </c>
       <c r="J51" t="str">
         <v/>
@@ -2505,12 +4317,48 @@
         <v/>
       </c>
       <c r="M51" t="str">
+        <v/>
+      </c>
+      <c r="N51" t="str">
+        <v/>
+      </c>
+      <c r="O51" t="str">
+        <v/>
+      </c>
+      <c r="P51" t="str">
+        <v/>
+      </c>
+      <c r="Q51" t="str">
+        <v/>
+      </c>
+      <c r="R51" t="str">
+        <v/>
+      </c>
+      <c r="S51" t="str">
+        <v/>
+      </c>
+      <c r="T51" t="str">
+        <v/>
+      </c>
+      <c r="U51" t="str">
+        <v/>
+      </c>
+      <c r="V51" t="str">
+        <v/>
+      </c>
+      <c r="W51" t="str">
+        <v/>
+      </c>
+      <c r="X51" t="str">
+        <v/>
+      </c>
+      <c r="Y51" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Y51"/>
   </ignoredErrors>
 </worksheet>
 </file>